--- a/lowcode-excel-parent/excel-engine/src/test/resources/excel解析测试/CollectionGroup测试1.xlsx
+++ b/lowcode-excel-parent/excel-engine/src/test/resources/excel解析测试/CollectionGroup测试1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cloud\Desktop\测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\lowcode\lowcode-engines-java\lowcode-excel-parent\excel-engine\src\test\resources\excel解析测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5022ADBB-9A44-4950-8E3C-044850D559EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55121255-988A-4B40-A8C9-D9077FF74F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,10 +108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -405,20 +405,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -427,36 +427,36 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>45323.333333333336</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>45323.791666666664</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
         <v>45324.354166666664</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>45324.8125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
         <v>45325.347222222219</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>45325.805555555555</v>
       </c>
     </row>
@@ -467,10 +467,10 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>45323.361111111109</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>45323.819444444445</v>
       </c>
     </row>
